--- a/server/excels/creditPredict.xlsx
+++ b/server/excels/creditPredict.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ردیف</t>
   </si>
@@ -42,9 +42,6 @@
     <t>مبلغ براساس آخرین تغییر مقادیر</t>
   </si>
   <si>
-    <t xml:space="preserve">درصد افزایش و کاهش </t>
-  </si>
-  <si>
     <t>مبلغ تجمعی صورت وضعیت پرداخت شده</t>
   </si>
   <si>
@@ -63,22 +60,10 @@
     <t>تاریخ آخرین صورت وضعیت تایید شده</t>
   </si>
   <si>
-    <t>مدت زمان سپری شده از تاریخ اخرین صورت وضعیت تایید شده تا تاریخ گزارش</t>
-  </si>
-  <si>
     <t>برآورد مبلغ صورت وضعیت از آخرین تاریخ تایید تا تاریخ گزارش</t>
   </si>
   <si>
-    <t>مدت زمان از تاریخ گزارش تا پایان قرارداد</t>
-  </si>
-  <si>
     <t>برآورد مبلغ صورت وضعیت از تاریخ گزارش تا پایان کار</t>
-  </si>
-  <si>
-    <t>مبلغ پیمان براساس برآورد</t>
-  </si>
-  <si>
-    <t>درصد افزایش و کاهش برآورد نسبت به مبلغ اولیه پیمان</t>
   </si>
 </sst>
 </file>
@@ -427,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,21 +465,6 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
